--- a/outputs-r202/test-g__Sharpea.xlsx
+++ b/outputs-r202/test-g__Sharpea.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>Row</t>
   </si>
@@ -64,7 +64,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -74,14 +74,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -101,98 +105,98 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.99999997322260603</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C2">
-        <v>2.6777393915498334e-08</v>
+        <v>2.2204460492502651e-14</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.99999962788326302</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C3">
-        <v>3.7211673696100339e-07</v>
+        <v>2.2204460492502664e-14</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.99999999950393981</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C4">
-        <v>4.9606016638305721e-10</v>
+        <v>2.2204460492502651e-14</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.99999999639388792</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C5">
-        <v>3.6061121191735465e-09</v>
+        <v>2.2204460492503024e-14</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.99999999343771784</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C6">
-        <v>6.5622821607936648e-09</v>
+        <v>2.2204460492502673e-14</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.99999857633891442</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C7">
-        <v>1.4236610855576056e-06</v>
+        <v>2.2204460492502711e-14</v>
       </c>
       <c r="D7">
         <v>1</v>
